--- a/prac-6/task2/отчет/results.xlsx
+++ b/prac-6/task2/отчет/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleb/Projects/prac-CS-MSU/prac-6/task2/отчет/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D0DFC-7E6D-0D4D-8E00-ED0C8EE1B8A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889D30B-95F6-0A46-AE34-8F69CC5CF8F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8B6A0AB1-831D-BB4B-9F8C-D95D3F002CB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="288">
   <si>
     <t>T1</t>
   </si>
@@ -516,38 +516,386 @@
     <t>1.21281e-05</t>
   </si>
   <si>
-    <t>Таблица 1: MPI, size = 300</t>
-  </si>
-  <si>
-    <t>Таблица 2: OpenMP, size = 300</t>
-  </si>
-  <si>
-    <t>Таблица 3: MPI, size = 1000</t>
-  </si>
-  <si>
-    <t>Таблица 4: OpenMP, size = 1000</t>
-  </si>
-  <si>
-    <t>Таблица 5: MPI, size = 3000</t>
-  </si>
-  <si>
-    <t>Таблица 6: OpenMP, size = 3000</t>
-  </si>
-  <si>
-    <t>Таблица 7: MPI, size = 6000</t>
-  </si>
-  <si>
-    <t>Таблица 8: OpenMP, size = 6000</t>
-  </si>
-  <si>
     <t>Процессов</t>
+  </si>
+  <si>
+    <t>Таблица 1: MPI, size = 300, внешнаяя генерация</t>
+  </si>
+  <si>
+    <t>Таблица 2: OpenMP, size = 300, генерация внутри процессов</t>
+  </si>
+  <si>
+    <t>Таблица 3: OpenMP, size = 300</t>
+  </si>
+  <si>
+    <t>Таблица 4: MPI, size = 1000, внешнаяя генерация</t>
+  </si>
+  <si>
+    <t>Таблица 5: OpenMP, size = 1000, генерация внутри процессов</t>
+  </si>
+  <si>
+    <t>Таблица 6: OpenMP, size = 1000</t>
+  </si>
+  <si>
+    <t>Таблица 7: MPI, size = 3000, внешнаяя генерация</t>
+  </si>
+  <si>
+    <t>Таблица 8: OpenMP, size = 3000, генерация внутри процессов</t>
+  </si>
+  <si>
+    <t>Таблица 10: MPI, size = 6000, внешнаяя генерация</t>
+  </si>
+  <si>
+    <t>Таблица 9: OpenMP, size = 3000</t>
+  </si>
+  <si>
+    <t>Таблица 11: OpenMP, size = 6000, генерация внутри процессов</t>
+  </si>
+  <si>
+    <t>Таблица 12: OpenMP, size = 6000</t>
+  </si>
+  <si>
+    <t>0.148821</t>
+  </si>
+  <si>
+    <t>0.000684</t>
+  </si>
+  <si>
+    <t>3.97662e-09</t>
+  </si>
+  <si>
+    <t>3.50938e-09</t>
+  </si>
+  <si>
+    <t>0.077978</t>
+  </si>
+  <si>
+    <t>0.001389</t>
+  </si>
+  <si>
+    <t>1.77438e-08</t>
+  </si>
+  <si>
+    <t>2.77627e-09</t>
+  </si>
+  <si>
+    <t>0.054388</t>
+  </si>
+  <si>
+    <t>0.001658</t>
+  </si>
+  <si>
+    <t>7.66899e-11</t>
+  </si>
+  <si>
+    <t>4.11253e-09</t>
+  </si>
+  <si>
+    <t>0.034621</t>
+  </si>
+  <si>
+    <t>0.001911</t>
+  </si>
+  <si>
+    <t>2.17434e-10</t>
+  </si>
+  <si>
+    <t>7.87919e-09</t>
+  </si>
+  <si>
+    <t>0.041283</t>
+  </si>
+  <si>
+    <t>0.004352</t>
+  </si>
+  <si>
+    <t>9.72073e-11</t>
+  </si>
+  <si>
+    <t>7.87075e-09</t>
+  </si>
+  <si>
+    <t>0.028968</t>
+  </si>
+  <si>
+    <t>0.007044</t>
+  </si>
+  <si>
+    <t>2.71936e-11</t>
+  </si>
+  <si>
+    <t>2.96895e-09</t>
+  </si>
+  <si>
+    <t>0.101731</t>
+  </si>
+  <si>
+    <t>0.269805</t>
+  </si>
+  <si>
+    <t>5.554626</t>
+  </si>
+  <si>
+    <t>51.152127</t>
+  </si>
+  <si>
+    <t>0.002511</t>
+  </si>
+  <si>
+    <t>1.51479e-11</t>
+  </si>
+  <si>
+    <t>1.24432e-09</t>
+  </si>
+  <si>
+    <t>0.008532</t>
+  </si>
+  <si>
+    <t>2.96872e-09</t>
+  </si>
+  <si>
+    <t>7.22317e-09</t>
+  </si>
+  <si>
+    <t>0.027537</t>
+  </si>
+  <si>
+    <t>8.33576e-10</t>
+  </si>
+  <si>
+    <t>3.96435e-08</t>
+  </si>
+  <si>
+    <t>0.062373</t>
+  </si>
+  <si>
+    <t>2.42504e-09</t>
+  </si>
+  <si>
+    <t>1.15001e-07</t>
+  </si>
+  <si>
+    <t>5.611135</t>
+  </si>
+  <si>
+    <t>0.005518</t>
+  </si>
+  <si>
+    <t>4.69308e-09</t>
+  </si>
+  <si>
+    <t>2.34393e-08</t>
+  </si>
+  <si>
+    <t>2.739325</t>
+  </si>
+  <si>
+    <t>0.004913</t>
+  </si>
+  <si>
+    <t>2.73632e-08</t>
+  </si>
+  <si>
+    <t>1.70232e-08</t>
+  </si>
+  <si>
+    <t>0.753804</t>
+  </si>
+  <si>
+    <t>0.004175</t>
+  </si>
+  <si>
+    <t>1.95286e-09</t>
+  </si>
+  <si>
+    <t>1.12095e-08</t>
+  </si>
+  <si>
+    <t>1.496284</t>
+  </si>
+  <si>
+    <t>0.004435</t>
+  </si>
+  <si>
+    <t>4.71953e-09</t>
+  </si>
+  <si>
+    <t>2.33579e-08</t>
+  </si>
+  <si>
+    <t>0.459001</t>
+  </si>
+  <si>
+    <t>0.005747</t>
+  </si>
+  <si>
+    <t>4.35825e-09</t>
+  </si>
+  <si>
+    <t>3.15734e-08</t>
+  </si>
+  <si>
+    <t>0.475671</t>
+  </si>
+  <si>
+    <t>0.007628</t>
+  </si>
+  <si>
+    <t>5.6275e-09</t>
+  </si>
+  <si>
+    <t>3.54887e-08</t>
+  </si>
+  <si>
+    <t>161.078453</t>
+  </si>
+  <si>
+    <t>0.055410</t>
+  </si>
+  <si>
+    <t>7.33062e-08</t>
+  </si>
+  <si>
+    <t>1.58048e-07</t>
+  </si>
+  <si>
+    <t>80.770941</t>
+  </si>
+  <si>
+    <t>0.034486</t>
+  </si>
+  <si>
+    <t>7.60449e-09</t>
+  </si>
+  <si>
+    <t>7.61661e-08</t>
+  </si>
+  <si>
+    <t>18.847402</t>
+  </si>
+  <si>
+    <t>0.014526</t>
+  </si>
+  <si>
+    <t>3.12326e-08</t>
+  </si>
+  <si>
+    <t>5.62473e-08</t>
+  </si>
+  <si>
+    <t>38.080519</t>
+  </si>
+  <si>
+    <t>0.019519</t>
+  </si>
+  <si>
+    <t>1.89266e-08</t>
+  </si>
+  <si>
+    <t>2.47244e-07</t>
+  </si>
+  <si>
+    <t>14.030649</t>
+  </si>
+  <si>
+    <t>0.014654</t>
+  </si>
+  <si>
+    <t>9.6339e-09</t>
+  </si>
+  <si>
+    <t>2.45593e-07</t>
+  </si>
+  <si>
+    <t>6.306142</t>
+  </si>
+  <si>
+    <t>0.017418</t>
+  </si>
+  <si>
+    <t>9.33777e-08</t>
+  </si>
+  <si>
+    <t>2.54629e-07</t>
+  </si>
+  <si>
+    <t>1865.766707</t>
+  </si>
+  <si>
+    <t>0.243868</t>
+  </si>
+  <si>
+    <t>4.19165e-08</t>
+  </si>
+  <si>
+    <t>5.18143e-07</t>
+  </si>
+  <si>
+    <t>672.624231</t>
+  </si>
+  <si>
+    <t>0.114805</t>
+  </si>
+  <si>
+    <t>5.41726e-08</t>
+  </si>
+  <si>
+    <t>2.53328e-07</t>
+  </si>
+  <si>
+    <t>335.374845</t>
+  </si>
+  <si>
+    <t>0.068390</t>
+  </si>
+  <si>
+    <t>3.3325e-08</t>
+  </si>
+  <si>
+    <t>5.68233e-07</t>
+  </si>
+  <si>
+    <t>167.183784</t>
+  </si>
+  <si>
+    <t>0.041324</t>
+  </si>
+  <si>
+    <t>1.8556e-07</t>
+  </si>
+  <si>
+    <t>5.17338e-07</t>
+  </si>
+  <si>
+    <t>89.031073</t>
+  </si>
+  <si>
+    <t>0.030401</t>
+  </si>
+  <si>
+    <t>1.98139e-08</t>
+  </si>
+  <si>
+    <t>3.82937e-07</t>
+  </si>
+  <si>
+    <t>46.584274</t>
+  </si>
+  <si>
+    <t>0.031096</t>
+  </si>
+  <si>
+    <t>4.76663e-08</t>
+  </si>
+  <si>
+    <t>5.59831e-07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -567,6 +915,28 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -745,55 +1115,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1108,1105 +1479,1698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3A8566-52C2-EB45-9F38-905B7728B007}">
-  <dimension ref="B2:AD52"/>
+  <dimension ref="A2:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:O35"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="106" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="3" max="22" width="13.33203125" customWidth="1"/>
-    <col min="23" max="29" width="11.6640625" customWidth="1"/>
+    <col min="2" max="32" width="11.6640625" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:32" s="32" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="R2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="Z2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="19"/>
+    </row>
+    <row r="4" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8">
+        <v>16</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8</v>
+      </c>
+      <c r="O4" s="8">
+        <v>16</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>2</v>
+      </c>
+      <c r="U4" s="6">
+        <v>4</v>
+      </c>
+      <c r="V4" s="7">
+        <v>8</v>
+      </c>
+      <c r="W4" s="8">
+        <v>16</v>
+      </c>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>16</v>
+      </c>
+      <c r="AF4" s="19"/>
     </row>
-    <row r="3" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="AD3" s="16"/>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF5" s="19"/>
     </row>
-    <row r="4" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="3" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF6" s="19"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF7" s="19"/>
+    </row>
+    <row r="8" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD8" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF8" s="19"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="19"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="19"/>
+    </row>
+    <row r="11" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="4">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="19"/>
+    </row>
+    <row r="13" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E13" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="5">
+      <c r="F13" s="7">
         <v>8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="G13" s="8">
         <v>16</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="H13" s="8">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L13" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M13" s="6">
         <v>4</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N13" s="7">
         <v>8</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O13" s="8">
         <v>16</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="AD4" s="16"/>
+      <c r="P13" s="8">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7">
+        <v>2</v>
+      </c>
+      <c r="U13" s="6">
+        <v>4</v>
+      </c>
+      <c r="V13" s="7">
+        <v>8</v>
+      </c>
+      <c r="W13" s="8">
+        <v>16</v>
+      </c>
+      <c r="X13" s="8">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>16</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B5" s="16"/>
-      <c r="C5" s="7" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="19" t="s">
+      <c r="C14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="W5" s="18"/>
-      <c r="AD5" s="16"/>
+      <c r="K14" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC14" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD14" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>284</v>
+      </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
-      <c r="C6" s="7" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="19" t="s">
+      <c r="C15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="W6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="K15" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE15" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF15" s="14" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="7" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="19" t="s">
+      <c r="C16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="K16" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="U16" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA16" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC16" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF16" s="14" t="s">
+        <v>286</v>
+      </c>
     </row>
-    <row r="8" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="13" t="s">
+    <row r="17" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="21" t="s">
+      <c r="C17" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="AD8" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="U17" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="W17" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB17" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC17" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD17" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE17" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF17" s="17" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="AD9" s="16"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="19"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="AD10" s="16"/>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="19"/>
     </row>
-    <row r="11" spans="2:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="AD11" s="16"/>
+    <row r="20" spans="1:32" s="32" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Z20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
     </row>
-    <row r="12" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="AD12" s="16"/>
+    <row r="21" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="19"/>
     </row>
-    <row r="13" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="22" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="D22" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="G13" s="5">
+      <c r="F22" s="7">
         <v>8</v>
       </c>
-      <c r="H13" s="6">
+      <c r="G22" s="8">
         <v>16</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="H22" s="8">
+        <v>32</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="6">
         <v>1</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L22" s="7">
         <v>2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M22" s="6">
         <v>4</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N22" s="7">
         <v>8</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O22" s="8">
         <v>16</v>
       </c>
-      <c r="P13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="AD13" s="16"/>
+      <c r="P22" s="8">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1</v>
+      </c>
+      <c r="T22" s="7">
+        <v>2</v>
+      </c>
+      <c r="U22" s="6">
+        <v>4</v>
+      </c>
+      <c r="V22" s="7">
+        <v>8</v>
+      </c>
+      <c r="W22" s="8">
+        <v>16</v>
+      </c>
+      <c r="X22" s="8">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>16</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="7" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="E23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="F23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="G23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="19" t="s">
+      <c r="H23" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="T23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="U23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="V23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="10" t="s">
+      <c r="W23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="AD14" s="16"/>
+      <c r="X23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="7" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="F24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="G24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="19" t="s">
+      <c r="H24" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="T24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="U24" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="V24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="W24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="W15" s="16"/>
-      <c r="AD15" s="16"/>
+      <c r="X24" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE24" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF24" s="14" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="7" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="D25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="E25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="F25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="G25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="19" t="s">
+      <c r="H25" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="T25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="U25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="V25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="W25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="AD16" s="16"/>
+      <c r="X25" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" s="14" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="17" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="13" t="s">
+    <row r="26" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="C26" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="E26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="F26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="G26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="13" t="s">
+      <c r="H26" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="T26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="U26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="V26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="W26" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="AD17" s="16"/>
+      <c r="X26" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" s="17" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-    </row>
-    <row r="20" spans="2:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4</v>
-      </c>
-      <c r="G22" s="5">
-        <v>8</v>
-      </c>
-      <c r="H22" s="6">
-        <v>16</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <v>2</v>
-      </c>
-      <c r="M22" s="4">
-        <v>4</v>
-      </c>
-      <c r="N22" s="5">
-        <v>8</v>
-      </c>
-      <c r="O22" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="2:30" ht="17" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="J29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-    </row>
-    <row r="31" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="4">
-        <v>4</v>
-      </c>
-      <c r="G31" s="5">
-        <v>8</v>
-      </c>
-      <c r="H31" s="6">
-        <v>16</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1</v>
-      </c>
-      <c r="L31" s="5">
-        <v>2</v>
-      </c>
-      <c r="M31" s="4">
-        <v>4</v>
-      </c>
-      <c r="N31" s="5">
-        <v>8</v>
-      </c>
-      <c r="O31" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C20:H20"/>
+  <mergeCells count="12">
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="R11:X11"/>
+    <mergeCell ref="R20:X20"/>
+    <mergeCell ref="Z11:AF11"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="J11:O11"/>
-    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="R2:W2"/>
+    <mergeCell ref="Z2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
